--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_6_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_6_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1750298.879089353</v>
+        <v>-1753333.211166206</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8656875.781858983</v>
+        <v>8656875.781858984</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>144.3277311286221</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>115.4314953055858</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>65.51651982872626</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>269.88545101545</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>338.7459207869665</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>178.2581424990152</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>70.26541886851844</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>232.3056710074059</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,19 +1133,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>126.1774605064793</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>146.0113717573219</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>6.165601831728148</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>185.0635387655691</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417126</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>161.3529630655224</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>20.31872152054658</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1768,19 +1768,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>145.4717465846019</v>
       </c>
       <c r="E16" t="n">
-        <v>67.33742371513297</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1822,13 +1822,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
@@ -2002,25 +2002,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>22.75377513543996</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>42.64088645074774</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292609</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247749</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734099625</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983815</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.9321526700474</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>128.4569290308535</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2296,16 +2296,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>52.09142367297214</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>74.7576914549245</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2533,13 +2533,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>96.59271395322354</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2731,7 +2731,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2953,7 +2953,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.330825526173</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545295</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545298</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3427,7 +3427,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
@@ -3436,13 +3436,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1825.581288436855</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C2" t="n">
-        <v>1456.618771496444</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D2" t="n">
-        <v>1098.353072889693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E2" t="n">
-        <v>952.5674858910851</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2580.55162101258</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2580.55162101258</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2326.789835650672</v>
       </c>
       <c r="V2" t="n">
-        <v>2212.181128500977</v>
+        <v>1995.726948307101</v>
       </c>
       <c r="W2" t="n">
-        <v>2212.181128500977</v>
+        <v>1642.958293036987</v>
       </c>
       <c r="X2" t="n">
-        <v>2212.181128500977</v>
+        <v>1269.492534775907</v>
       </c>
       <c r="Y2" t="n">
-        <v>2212.181128500977</v>
+        <v>1269.492534775907</v>
       </c>
     </row>
     <row r="3">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120.1212846776637</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C4" t="n">
-        <v>120.1212846776637</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D4" t="n">
-        <v>120.1212846776637</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>120.1212846776637</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>120.1212846776637</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>120.1212846776637</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>120.1212846776637</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>409.5384547146243</v>
+        <v>455.5174175241617</v>
       </c>
       <c r="V4" t="n">
-        <v>409.5384547146243</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="W4" t="n">
-        <v>120.1212846776637</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X4" t="n">
-        <v>120.1212846776637</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y4" t="n">
-        <v>120.1212846776637</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1241.158393318536</v>
+        <v>785.9420003259004</v>
       </c>
       <c r="C5" t="n">
-        <v>1241.158393318536</v>
+        <v>416.9794833854887</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2298.4556941933</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>1967.39280684973</v>
+        <v>1936.146930626914</v>
       </c>
       <c r="W5" t="n">
-        <v>1614.624151579615</v>
+        <v>1936.146930626914</v>
       </c>
       <c r="X5" t="n">
-        <v>1241.158393318536</v>
+        <v>1562.681172365834</v>
       </c>
       <c r="Y5" t="n">
-        <v>1241.158393318536</v>
+        <v>1172.541840390022</v>
       </c>
     </row>
     <row r="6">
@@ -4620,73 +4620,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>201.8560754027576</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C7" t="n">
-        <v>201.8560754027576</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>500.820796875036</v>
+        <v>493.4767912696608</v>
       </c>
       <c r="V7" t="n">
-        <v>500.820796875036</v>
+        <v>493.4767912696608</v>
       </c>
       <c r="W7" t="n">
-        <v>500.820796875036</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="X7" t="n">
-        <v>272.8312459770186</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="Y7" t="n">
-        <v>272.8312459770186</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1964.838184214438</v>
+        <v>919.5755868835442</v>
       </c>
       <c r="C8" t="n">
-        <v>1595.875667274027</v>
+        <v>919.5755868835442</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274027</v>
+        <v>919.5755868835442</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>919.5755868835442</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>508.5896820939367</v>
       </c>
       <c r="G8" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2549.662856919917</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2549.662856919917</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2295.901071558009</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V8" t="n">
-        <v>1964.838184214438</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>1964.838184214438</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>1964.838184214438</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y8" t="n">
-        <v>1964.838184214438</v>
+        <v>919.5755868835442</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4878,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>211.6913543878343</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C10" t="n">
-        <v>211.6913543878343</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>211.6913543878343</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="U10" t="n">
-        <v>721.901103568325</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="V10" t="n">
-        <v>721.901103568325</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="W10" t="n">
-        <v>432.4839335313644</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="X10" t="n">
-        <v>432.4839335313644</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.6913543878343</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="11">
@@ -5018,13 +5018,13 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
         <v>850.213983755162</v>
@@ -5039,19 +5039,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2016.310259422546</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>2996.062531649192</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O11" t="n">
         <v>3547.201365906985</v>
@@ -5066,19 +5066,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5109,28 +5109,28 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320241</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>485.9938459101016</v>
+        <v>703.4635059163088</v>
       </c>
       <c r="C13" t="n">
-        <v>485.9938459101016</v>
+        <v>703.4635059163088</v>
       </c>
       <c r="D13" t="n">
-        <v>485.9938459101016</v>
+        <v>553.346866503973</v>
       </c>
       <c r="E13" t="n">
-        <v>485.9938459101016</v>
+        <v>405.4337729215799</v>
       </c>
       <c r="F13" t="n">
-        <v>339.1038984121913</v>
+        <v>258.5438254236695</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U13" t="n">
-        <v>1432.536548126719</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V13" t="n">
-        <v>1177.852059920832</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="W13" t="n">
-        <v>888.4348898838715</v>
+        <v>931.4530568143261</v>
       </c>
       <c r="X13" t="n">
-        <v>888.4348898838715</v>
+        <v>703.4635059163088</v>
       </c>
       <c r="Y13" t="n">
-        <v>667.6423107403414</v>
+        <v>703.4635059163088</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
@@ -5276,25 +5276,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.32865758045</v>
+        <v>2816.030799058633</v>
       </c>
       <c r="N14" t="n">
-        <v>3008.107474639232</v>
+        <v>3362.809616117416</v>
       </c>
       <c r="O14" t="n">
-        <v>3888.072124968687</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q14" t="n">
         <v>4719.034655862919</v>
@@ -5309,7 +5309,7 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
@@ -5318,10 +5318,10 @@
         <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
         <v>205.0702204089889</v>
@@ -5355,13 +5355,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>260.9043113423046</v>
+        <v>653.7478932037369</v>
       </c>
       <c r="C16" t="n">
-        <v>260.9043113423046</v>
+        <v>653.7478932037369</v>
       </c>
       <c r="D16" t="n">
-        <v>260.9043113423046</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E16" t="n">
-        <v>192.8867116300491</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F16" t="n">
-        <v>192.8867116300491</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G16" t="n">
-        <v>192.8867116300491</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H16" t="n">
         <v>192.8867116300491</v>
@@ -5458,28 +5458,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>999.1036114208126</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="W16" t="n">
-        <v>709.6864413838521</v>
+        <v>874.540472347267</v>
       </c>
       <c r="X16" t="n">
-        <v>481.6968904858347</v>
+        <v>874.540472347267</v>
       </c>
       <c r="Y16" t="n">
-        <v>260.9043113423046</v>
+        <v>653.7478932037369</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5492,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
@@ -5513,46 +5513,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L17" t="n">
-        <v>1682.725100522032</v>
+        <v>1682.725100522031</v>
       </c>
       <c r="M17" t="n">
-        <v>2216.257005193957</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N17" t="n">
-        <v>3196.009277420604</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O17" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
@@ -5595,7 +5595,7 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
         <v>794.2006632320243</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>680.5797464134954</v>
+        <v>583.5523174165364</v>
       </c>
       <c r="C19" t="n">
-        <v>657.5961351655762</v>
+        <v>583.5523174165364</v>
       </c>
       <c r="D19" t="n">
-        <v>507.4794957532405</v>
+        <v>433.4356780042007</v>
       </c>
       <c r="E19" t="n">
-        <v>507.4794957532405</v>
+        <v>285.5225844218076</v>
       </c>
       <c r="F19" t="n">
-        <v>360.5895482553301</v>
+        <v>138.6326369238972</v>
       </c>
       <c r="G19" t="n">
-        <v>192.8867116300491</v>
+        <v>138.6326369238972</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>138.6326369238972</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T19" t="n">
-        <v>1734.57685067423</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U19" t="n">
-        <v>1445.473983799873</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.789495593986</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W19" t="n">
-        <v>901.3723255570255</v>
+        <v>811.5418683145538</v>
       </c>
       <c r="X19" t="n">
-        <v>901.3723255570255</v>
+        <v>583.5523174165364</v>
       </c>
       <c r="Y19" t="n">
-        <v>680.5797464134954</v>
+        <v>583.5523174165364</v>
       </c>
     </row>
     <row r="20">
@@ -5726,52 +5726,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277726</v>
       </c>
       <c r="K20" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L20" t="n">
-        <v>1236.699401366028</v>
+        <v>1557.60335981148</v>
       </c>
       <c r="M20" t="n">
-        <v>2064.476622801002</v>
+        <v>2091.135264483404</v>
       </c>
       <c r="N20" t="n">
-        <v>3044.228895027648</v>
+        <v>2979.169639353397</v>
       </c>
       <c r="O20" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232733</v>
       </c>
       <c r="P20" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5783,19 +5783,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5805,43 +5805,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089899</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320233</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008793</v>
       </c>
       <c r="O21" t="n">
         <v>2125.96131142685</v>
@@ -5850,7 +5850,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5859,16 +5859,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
         <v>1346.568408282342</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>728.5338801960603</v>
+        <v>487.6897527103526</v>
       </c>
       <c r="C22" t="n">
-        <v>559.5976972681534</v>
+        <v>487.6897527103526</v>
       </c>
       <c r="D22" t="n">
-        <v>409.4810578558177</v>
+        <v>487.6897527103526</v>
       </c>
       <c r="E22" t="n">
-        <v>409.4810578558177</v>
+        <v>339.7766591279595</v>
       </c>
       <c r="F22" t="n">
-        <v>409.4810578558177</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G22" t="n">
-        <v>241.7782212305366</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.670849844206</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>661.230648292702</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598115</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518528</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104702</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.51300886223</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104704</v>
+        <v>1736.758535093691</v>
       </c>
       <c r="T22" t="n">
-        <v>1734.57685067423</v>
+        <v>1514.991919663217</v>
       </c>
       <c r="U22" t="n">
-        <v>1445.473983799873</v>
+        <v>1225.889052788861</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.789495593986</v>
+        <v>1225.889052788861</v>
       </c>
       <c r="W22" t="n">
-        <v>1138.171895924317</v>
+        <v>936.4718827519</v>
       </c>
       <c r="X22" t="n">
-        <v>910.1823450263</v>
+        <v>708.4823318538827</v>
       </c>
       <c r="Y22" t="n">
-        <v>910.1823450263</v>
+        <v>487.6897527103526</v>
       </c>
     </row>
     <row r="23">
@@ -5966,67 +5966,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089262</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277731</v>
       </c>
       <c r="K23" t="n">
         <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1971.087962216427</v>
+        <v>1557.603359811482</v>
       </c>
       <c r="M23" t="n">
-        <v>2949.638265046256</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>3496.417082105038</v>
+        <v>2637.914081542189</v>
       </c>
       <c r="O23" t="n">
-        <v>3999.389552984375</v>
+        <v>3517.878731871644</v>
       </c>
       <c r="P23" t="n">
-        <v>4394.163919341553</v>
+        <v>4231.23381931859</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4689.712021827578</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
@@ -6069,22 +6069,22 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
@@ -6099,7 +6099,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>855.6340846510827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>686.6979017231758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>536.5812623108401</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>388.668168728447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6148,16 +6148,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O25" t="n">
         <v>1646.12566951853</v>
@@ -6172,25 +6172,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T25" t="n">
-        <v>1644.746393431758</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U25" t="n">
-        <v>1355.643526557401</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>1258.075128624852</v>
+        <v>909.2731541783413</v>
       </c>
       <c r="W25" t="n">
-        <v>1258.075128624852</v>
+        <v>619.8559841413808</v>
       </c>
       <c r="X25" t="n">
-        <v>1258.075128624852</v>
+        <v>391.8664332433634</v>
       </c>
       <c r="Y25" t="n">
-        <v>1037.282549481322</v>
+        <v>171.0738540998333</v>
       </c>
     </row>
     <row r="26">
@@ -6212,25 +6212,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961525</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1231.938859683105</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C28" t="n">
         <v>782.5512955656816</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G28" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>198.094482495415</v>
@@ -6391,13 +6391,13 @@
         <v>898.2659412311323</v>
       </c>
       <c r="M28" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N28" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O28" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P28" t="n">
         <v>2496.057455973196</v>
@@ -6406,7 +6406,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
         <v>2438.456847547835</v>
@@ -6424,7 +6424,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y28" t="n">
         <v>1084.076049400516</v>
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6540,19 +6540,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>429.5088224239596</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1026.887310050512</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N30" t="n">
-        <v>1654.485273605118</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150018</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
         <v>898.2659412311323</v>
@@ -6643,28 +6643,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="32">
@@ -6686,16 +6686,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6707,10 +6707,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6786,19 +6786,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
         <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,13 +6859,13 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
@@ -6880,25 +6880,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U34" t="n">
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7014,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1522.21291626627</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N36" t="n">
-        <v>2149.810879820877</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D37" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580107</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384015</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954148</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7129,16 +7129,16 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7254,25 +7254,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1337.934786622704</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
         <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380724</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311316</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7360,7 +7360,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838285</v>
@@ -7400,28 +7400,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7494,22 +7494,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319331</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656825</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7588,22 +7588,22 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N45" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>2222.001901828445</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7819,7 +7819,7 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
         <v>2496.057455973196</v>
@@ -7828,19 +7828,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532433</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360586</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142015</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8687,22 +8687,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>29.61882225792135</v>
       </c>
       <c r="O11" t="n">
-        <v>48.65289230147073</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8924,28 +8924,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>314.5564971416986</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>189.7998007892645</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9161,13 +9161,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>126.3855966773241</v>
+        <v>295.4822118493972</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9401,16 +9401,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>297.2174916798474</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>344.7025836476881</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9641,25 +9641,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>77.35795430877036</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>29.6188222579199</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -22550,22 +22550,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>237.6026389436397</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.15819850974091</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,10 +22595,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>58.98421750338572</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,10 +22607,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>73.62235557306428</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22708,13 +22708,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22723,10 +22723,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.44910196361197</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22753,13 +22753,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>16.39642322652776</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-4.342835454180696e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>4.67284519350585</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>265.8931166850663</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,19 +23656,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>3.143726433610425</v>
       </c>
       <c r="E16" t="n">
-        <v>79.0965389314362</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>144.4930459631879</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>53.71153395909035</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>61.31209630058842</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,16 +24184,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>234.4315746636188</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>105.0742887270128</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,13 +24421,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>155.5449293706045</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -26320,40 +26320,40 @@
         <v>102630.2212330354</v>
       </c>
       <c r="E2" t="n">
-        <v>99270.44672174577</v>
+        <v>99270.44672174574</v>
       </c>
       <c r="F2" t="n">
-        <v>99270.44672174577</v>
+        <v>99270.44672174579</v>
       </c>
       <c r="G2" t="n">
-        <v>99270.4467217457</v>
+        <v>99270.44672174576</v>
       </c>
       <c r="H2" t="n">
-        <v>99270.44672174577</v>
+        <v>99270.44672174579</v>
       </c>
       <c r="I2" t="n">
-        <v>99270.44672174577</v>
+        <v>99270.44672174576</v>
       </c>
       <c r="J2" t="n">
         <v>102630.2212330355</v>
       </c>
       <c r="K2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330356</v>
       </c>
       <c r="L2" t="n">
-        <v>102630.2212330356</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="M2" t="n">
         <v>102630.2212330354</v>
       </c>
       <c r="N2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330354</v>
       </c>
       <c r="O2" t="n">
         <v>102630.2212330355</v>
       </c>
       <c r="P2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330354</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.026931840897305e-09</v>
       </c>
       <c r="J3" t="n">
-        <v>395954.8515672232</v>
+        <v>395954.8515672229</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363175</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,37 +26424,37 @@
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709183</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709185</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709192</v>
       </c>
       <c r="I4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="J4" t="n">
-        <v>12448.5078997516</v>
+        <v>12448.50789975159</v>
       </c>
       <c r="K4" t="n">
         <v>12448.5078997516</v>
       </c>
       <c r="L4" t="n">
+        <v>12448.50789975159</v>
+      </c>
+      <c r="M4" t="n">
         <v>12448.5078997516</v>
-      </c>
-      <c r="M4" t="n">
-        <v>12448.50789975161</v>
       </c>
       <c r="N4" t="n">
         <v>12448.5078997516</v>
       </c>
       <c r="O4" t="n">
-        <v>12448.50789975159</v>
+        <v>12448.5078997516</v>
       </c>
       <c r="P4" t="n">
         <v>12448.50789975158</v>
@@ -26470,10 +26470,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371366</v>
@@ -26485,10 +26485,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="J5" t="n">
         <v>103164.1158539154</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-714747.0800129604</v>
+        <v>-715014.3510555987</v>
       </c>
       <c r="C6" t="n">
         <v>-172435.4532228038</v>
@@ -26528,40 +26528,40 @@
         <v>-172435.4532228038</v>
       </c>
       <c r="E6" t="n">
-        <v>-746110.0935224665</v>
+        <v>-746177.2890126921</v>
       </c>
       <c r="F6" t="n">
-        <v>-18732.67952905977</v>
+        <v>-18799.87501928554</v>
       </c>
       <c r="G6" t="n">
-        <v>-18732.67952905981</v>
+        <v>-18799.87501928554</v>
       </c>
       <c r="H6" t="n">
-        <v>-18732.67952905977</v>
+        <v>-18799.87501928487</v>
       </c>
       <c r="I6" t="n">
-        <v>-18732.67952905975</v>
+        <v>-18799.87501928661</v>
       </c>
       <c r="J6" t="n">
-        <v>-408937.2540878548</v>
+        <v>-408937.2540878544</v>
       </c>
       <c r="K6" t="n">
-        <v>-12982.40252063156</v>
+        <v>-12982.40252063143</v>
       </c>
       <c r="L6" t="n">
-        <v>-12982.40252063143</v>
+        <v>-12982.40252063151</v>
       </c>
       <c r="M6" t="n">
-        <v>-142624.7173595764</v>
+        <v>-142624.7173595763</v>
       </c>
       <c r="N6" t="n">
-        <v>-12982.40252063153</v>
+        <v>-12982.40252063157</v>
       </c>
       <c r="O6" t="n">
-        <v>-32410.12051426327</v>
+        <v>-32410.12051426331</v>
       </c>
       <c r="P6" t="n">
-        <v>-12982.40252063151</v>
+        <v>-12982.40252063154</v>
       </c>
     </row>
   </sheetData>
@@ -26707,22 +26707,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="K2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="K2" t="n">
-        <v>24.28464749203972</v>
-      </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
         <v>24.2846474920397</v>
       </c>
       <c r="N2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203973</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203968</v>
@@ -26738,10 +26738,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26753,10 +26753,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593297</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="J3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,10 +26978,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="J3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.198799748375</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>149.7731177351203</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,22 +27424,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>275.6186131443487</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27594,13 +27594,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>15.93712083371645</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>72.96602500927409</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>109.5665613134189</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>53.97620323457184</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,19 +27853,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>287.6067095143157</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>28.40434105164962</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,31 +28053,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>280.1162724102496</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>40.64611662346806</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32075,7 +32075,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
@@ -32312,7 +32312,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681595</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844664</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953986</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003806</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623187</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574988</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095017</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099053</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746408</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781686</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563567</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806942</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451119</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345275</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502564</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798529</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752251</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353154</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138792</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233471</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837919</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970273</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002923</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987484</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.536594090554</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238312</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.44815837589849</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462214</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430536</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311878</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742014</v>
       </c>
       <c r="J22" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702022</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098818</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.049502431643</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883113</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023085999</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802167</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895879</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712208</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553033</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112289</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I23" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T23" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970236</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,43 +32859,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J25" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U25" t="n">
         <v>0.1071911508780295</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>638.4800548179295</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,22 +33260,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O30" t="n">
-        <v>349.7190218511039</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>729.0844763571695</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,7 +33734,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>314.3020503687028</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33974,16 +33974,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>137.7376326175082</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34214,13 +34214,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>403.8524967138027</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>403.8524967138027</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>431.3680753731354</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839189</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,22 +35407,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>581.9206576708328</v>
       </c>
       <c r="O11" t="n">
-        <v>556.7058931896898</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>853.4776129719254</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>588.5617870086363</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
         <v>59.61319854222478</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
@@ -35881,13 +35881,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>581.9757110696563</v>
+        <v>751.0723262417293</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>359.883616140786</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265648</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923315</v>
       </c>
       <c r="M20" t="n">
-        <v>836.1386075100742</v>
+        <v>538.9211158302261</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>897.0044190605989</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882185</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>720.560694390854</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636238</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.329618415207</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609564</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.402182134005</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013287</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004586</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525829</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859621</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127269</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306611</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443194</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701979</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934836</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675398</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226395</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451102</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789351</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407865</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265655</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509648</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q23" t="n">
-        <v>328.1522591124898</v>
+        <v>463.1092954636244</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>89.2320208001448</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525793</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36604,7 +36604,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>496.3460208959112</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36753,10 +36753,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M28" t="n">
         <v>450.5570744930848</v>
@@ -36844,7 +36844,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,22 +36908,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O30" t="n">
-        <v>207.1227774066595</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36993,7 +36993,7 @@
         <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
         <v>450.5570744930848</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>586.9504424351511</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>171.7058059242583</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,16 +37622,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>6.39592053417488</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
         <v>418.6266618111711</v>
@@ -37862,13 +37862,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37941,7 +37941,7 @@
         <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38035,7 +38035,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>297.3936679588052</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
